--- a/classification/droptc/neo-bert/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/neo-bert/freeze/14298463/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8083478808403015</v>
+        <v>0.5795730948448181</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5498941540718079</v>
+        <v>0.9135105013847351</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8354421854019165</v>
+        <v>0.4337235391139984</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4836302399635315</v>
+        <v>0.8964383006095886</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4999102652072906</v>
+        <v>0.7794365286827087</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7405915856361389</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7297294139862061</v>
+        <v>0.6721497774124146</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.874474823474884</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565853476524353</v>
+        <v>0.7478873729705811</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9497228860855103</v>
+        <v>0.8597221970558167</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7654677629470825</v>
+        <v>0.7640396952629089</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.716237485408783</v>
+        <v>0.8452706336975098</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5154184103012085</v>
+        <v>0.4739007353782654</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.7450244426727295</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.6981855630874634</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.659326434135437</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3939403295516968</v>
+        <v>0.7109248042106628</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.8207236528396606</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.3934133350849152</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760925531387329</v>
+        <v>0.4923898279666901</v>
       </c>
     </row>
     <row r="22">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4791485667228699</v>
+        <v>0.4548231959342957</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6437613368034363</v>
+        <v>0.3900995552539825</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6730481386184692</v>
+        <v>0.9793004989624023</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6632767915725708</v>
+        <v>0.950924813747406</v>
       </c>
     </row>
     <row r="26">
@@ -1155,14 +1155,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.5038220286369324</v>
       </c>
     </row>
     <row r="27">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9688951373100281</v>
+        <v>0.4084533751010895</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.9829373955726624</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.9582405090332031</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7096468806266785</v>
+        <v>0.9238492846488953</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.7719771862030029</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8493021130561829</v>
+        <v>0.941887378692627</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9655225872993469</v>
+        <v>0.8623628616333008</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4834436476230621</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9452027082443237</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9610159993171692</v>
+        <v>0.5008794069290161</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4326611757278442</v>
+        <v>0.9108733534812927</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.699696958065033</v>
+        <v>0.8435550928115845</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8247070908546448</v>
+        <v>0.6951578855514526</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9208796620368958</v>
+        <v>0.5913114547729492</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5518379807472229</v>
+        <v>0.9760206937789917</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4980758726596832</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7096589803695679</v>
+        <v>0.7104243636131287</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4021060168743134</v>
+        <v>0.5016898512840271</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8682397603988647</v>
+        <v>0.8425731062889099</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.828207790851593</v>
+        <v>0.3934133350849152</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454019784927368</v>
+        <v>0.8728652596473694</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8513959646224976</v>
+        <v>0.8890586495399475</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.8103662729263306</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7641497850418091</v>
+        <v>0.6153384447097778</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6213806867599487</v>
+        <v>0.5411830544471741</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.929438591003418</v>
+        <v>0.8667497038841248</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7053418755531311</v>
+        <v>0.9582405090332031</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4472375214099884</v>
+        <v>0.8131471872329712</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5125277638435364</v>
+        <v>0.9231454730033875</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6224995851516724</v>
+        <v>0.4205546975135803</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7600646615028381</v>
+        <v>0.6053606867790222</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3247043788433075</v>
+        <v>0.4876057803630829</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9243894815444946</v>
+        <v>0.628129243850708</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.9385393261909485</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3884379863739014</v>
+        <v>0.5166618824005127</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7778666615486145</v>
+        <v>0.4782887101173401</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9604416489601135</v>
+        <v>0.6938543915748596</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.4092292189598083</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.802747368812561</v>
+        <v>0.853696346282959</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8649647235870361</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7237233519554138</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4785155951976776</v>
+        <v>0.5864342451095581</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7484671473503113</v>
+        <v>0.9538384079933167</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9555691480636597</v>
+        <v>0.4354975521564484</v>
       </c>
     </row>
     <row r="71">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7574840784072876</v>
+        <v>0.678597092628479</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8231579065322876</v>
+        <v>0.9000090360641479</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903229832649231</v>
+        <v>0.691957950592041</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6439342498779297</v>
+        <v>0.6841831207275391</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9593504071235657</v>
+        <v>0.4288224279880524</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8393717408180237</v>
+        <v>0.9898974895477295</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8364729285240173</v>
+        <v>0.4292033910751343</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9831650257110596</v>
+        <v>0.9462506175041199</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8821849822998047</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.4279497563838959</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8700818419456482</v>
+        <v>0.8997262716293335</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5911749601364136</v>
+        <v>0.5652797818183899</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3974263072013855</v>
+        <v>0.739233672618866</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4008449912071228</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.43935626745224</v>
+        <v>0.9048773050308228</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6513535380363464</v>
+        <v>0.9537106156349182</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7306404113769531</v>
+        <v>0.8179656267166138</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.696035623550415</v>
+        <v>0.8876113295555115</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.4751513004302979</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4200595617294312</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9550797939300537</v>
+        <v>0.6542221307754517</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4018666446208954</v>
+        <v>0.9134865999221802</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.7913022637367249</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.991970419883728</v>
+        <v>0.9638343453407288</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.916209876537323</v>
+        <v>0.8493364453315735</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.621003270149231</v>
+        <v>0.723304271697998</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7956230044364929</v>
+        <v>0.835137665271759</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.6425895094871521</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5972179174423218</v>
+        <v>0.8667937517166138</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8995890021324158</v>
+        <v>0.9316133260726929</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5511196255683899</v>
+        <v>0.7767276167869568</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7661871910095215</v>
+        <v>0.4797520637512207</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4133843183517456</v>
+        <v>0.9264398217201233</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8600553274154663</v>
+        <v>0.8930881023406982</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7499625086784363</v>
+        <v>0.8268547058105469</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8222122192382812</v>
+        <v>0.9031331539154053</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4826361536979675</v>
+        <v>0.9460307359695435</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5055290460586548</v>
+        <v>0.5397825837135315</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.7659302949905396</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6544837355613708</v>
+        <v>0.638360321521759</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8473323583602905</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.9264398217201233</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3901916146278381</v>
+        <v>0.5450698137283325</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2825218439102173</v>
+        <v>0.7915574908256531</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8117401003837585</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8207299113273621</v>
+        <v>0.9398158192634583</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8745982050895691</v>
+        <v>0.8191489577293396</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3753398954868317</v>
+        <v>0.7959258556365967</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4739542901515961</v>
+        <v>0.4324133098125458</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5567277073860168</v>
+        <v>0.3496354222297668</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7852211594581604</v>
+        <v>0.9149668216705322</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6146852970123291</v>
+        <v>0.7054840326309204</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6094714403152466</v>
+        <v>0.4846512377262115</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6698758006095886</v>
+        <v>0.7995128035545349</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5386305451393127</v>
+        <v>0.4937149584293365</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3542820513248444</v>
+        <v>0.6804630160331726</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.4923898279666901</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.81972736120224</v>
+        <v>0.8942121863365173</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3767922818660736</v>
+        <v>0.5949642658233643</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6221538186073303</v>
+        <v>0.4259071350097656</v>
       </c>
     </row>
     <row r="131">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.8153592944145203</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9096447825431824</v>
+        <v>0.8976998925209045</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9539830088615417</v>
+        <v>0.5451775789260864</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9164506196975708</v>
+        <v>0.6213933229446411</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9091532826423645</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.6253453493118286</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6464698910713196</v>
+        <v>0.5736370086669922</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5037597417831421</v>
+        <v>0.4772341549396515</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9259652495384216</v>
+        <v>0.9560285210609436</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4728617966175079</v>
+        <v>0.7219070792198181</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8960246443748474</v>
+        <v>0.7796926498413086</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8273695707321167</v>
+        <v>0.9388561248779297</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4738113284111023</v>
+        <v>0.74376380443573</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.961845338344574</v>
+        <v>0.7328971028327942</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.503071129322052</v>
+        <v>0.748501718044281</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4442293643951416</v>
+        <v>0.7719809412956238</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.802747368812561</v>
+        <v>0.6938543915748596</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5051309466362</v>
+        <v>0.5720436573028564</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7579325437545776</v>
+        <v>0.7781464457511902</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8209801912307739</v>
+        <v>0.6115763783454895</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8687252402305603</v>
+        <v>0.7959258556365967</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8292484283447266</v>
+        <v>0.4849080741405487</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6627504825592041</v>
+        <v>0.5030992031097412</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5080556273460388</v>
+        <v>0.4084832072257996</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4638935923576355</v>
+        <v>0.7818855047225952</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8379144668579102</v>
+        <v>0.8972849249839783</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8674547076225281</v>
+        <v>0.9676507711410522</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5691381692886353</v>
+        <v>0.6773565411567688</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.535086989402771</v>
+        <v>0.5833359360694885</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6450055837631226</v>
+        <v>0.8889104723930359</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9707126021385193</v>
+        <v>0.7410009503364563</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.762016236782074</v>
+        <v>0.8723200559616089</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9541250467300415</v>
+        <v>0.5864342451095581</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6326504945755005</v>
+        <v>0.7959258556365967</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.756725549697876</v>
+        <v>0.9046562910079956</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8571887612342834</v>
+        <v>0.7478873729705811</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.9556854963302612</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350173473358154</v>
+        <v>0.8972379565238953</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.6944354176521301</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6487089991569519</v>
+        <v>0.5674821734428406</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8620923161506653</v>
+        <v>0.8915516138076782</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3102940917015076</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8700049519538879</v>
+        <v>0.7231347560882568</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5933001041412354</v>
+        <v>0.9805951118469238</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5533017516136169</v>
+        <v>0.9527073502540588</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7095666527748108</v>
+        <v>0.4544817507266998</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.5576307773590088</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9563272595405579</v>
+        <v>0.976387619972229</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7031205892562866</v>
+        <v>0.757422924041748</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.415401965379715</v>
+        <v>0.9440394639968872</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9405987858772278</v>
+        <v>0.8906062841415405</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7944394946098328</v>
+        <v>0.7219070792198181</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.4970835447311401</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8612337708473206</v>
+        <v>0.581841766834259</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5849875807762146</v>
+        <v>0.4216088056564331</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8031851053237915</v>
+        <v>0.9180182218551636</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8417440056800842</v>
+        <v>0.7412629127502441</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.8944254517555237</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4475770890712738</v>
+        <v>0.5720436573028564</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9010603427886963</v>
+        <v>0.6436742544174194</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8887050747871399</v>
+        <v>0.357966274023056</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9135679006576538</v>
+        <v>0.8814375996589661</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.7096843719482422</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7528043389320374</v>
+        <v>0.9181696176528931</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9200946688652039</v>
+        <v>0.7629728317260742</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.682648241519928</v>
+        <v>0.5720436573028564</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9458490014076233</v>
+        <v>0.4837020635604858</v>
       </c>
     </row>
     <row r="199">
@@ -5999,14 +5999,14 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4914770424365997</v>
+        <v>0.4876057803630829</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9088032841682434</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3798388838768005</v>
+        <v>0.964127779006958</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7083860039710999</v>
+        <v>0.8944254517555237</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6898691654205322</v>
+        <v>0.9314236044883728</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.5963550806045532</v>
       </c>
     </row>
     <row r="205">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8908553123474121</v>
+        <v>0.4612911343574524</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4643362760543823</v>
+        <v>0.8964383006095886</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5195571780204773</v>
+        <v>0.7219070792198181</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030292391777039</v>
+        <v>0.7478873729705811</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.5280351638793945</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8086134791374207</v>
+        <v>0.912503182888031</v>
       </c>
     </row>
   </sheetData>
